--- a/ncp-gop-transect-2019-pkg14/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-2019-pkg14/ncp-gop-transect-info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2018-pkg13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2019-pkg14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09FD23-B9BC-4F53-A20D-5D49CFC3A609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8522EB6-C012-41B7-A557-FA472613C69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="21384" windowHeight="11424" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>givenName</t>
   </si>
@@ -378,6 +378,21 @@
   </si>
   <si>
     <t xml:space="preserve"> H R</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Aldrett</t>
+  </si>
+  <si>
+    <t>Arshia</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t>amehta3@wellesley.edu</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1481,6 +1496,55 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
     </row>

--- a/ncp-gop-transect-2019-pkg14/ncp-gop-transect-info.xlsx
+++ b/ncp-gop-transect-2019-pkg14/ncp-gop-transect-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2019-pkg14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8522EB6-C012-41B7-A557-FA472613C69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0070DF1-D84A-415D-8FB5-4BA2F35F9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="21384" windowHeight="11424" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="117">
   <si>
     <t>givenName</t>
   </si>
@@ -84,18 +84,6 @@
   </si>
   <si>
     <t>contact</t>
-  </si>
-  <si>
-    <t>Jaxine</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Wolfe</t>
-  </si>
-  <si>
-    <t>0000-0001-9620-5382</t>
   </si>
   <si>
     <t>keyword</t>
@@ -792,202 +780,202 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1012,132 +1000,132 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1158,90 +1146,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1251,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:J9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1320,22 +1308,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1352,22 +1340,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -1384,25 +1372,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1416,16 +1404,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1442,23 +1430,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -1472,22 +1459,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>46</v>
+      <c r="E8" t="s">
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -1501,17 +1485,14 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
@@ -1522,29 +1503,6 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1553,7 +1511,7 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,76 +1535,76 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1671,36 +1629,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
